--- a/Homogeneity_Symmetry_Combined_Results.xlsx
+++ b/Homogeneity_Symmetry_Combined_Results.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="AIDS_Homogeneity" sheetId="1" r:id="rId1"/>
     <sheet name="AIDS_Symmetry" sheetId="2" r:id="rId2"/>
-    <sheet name="LA-AIDS_Homogeneity" sheetId="3" r:id="rId3"/>
-    <sheet name="LA-AIDS_Symmetry" sheetId="4" r:id="rId4"/>
+    <sheet name="LAAIDS_Homogeneity" sheetId="3" r:id="rId3"/>
+    <sheet name="LAAIDS_Symmetry" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -401,7 +401,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
